--- a/MVP_02/SHOPPING_LISTS/TAMESON/TAMESON.xlsx
+++ b/MVP_02/SHOPPING_LISTS/TAMESON/TAMESON.xlsx
@@ -478,7 +478,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>

--- a/MVP_02/SHOPPING_LISTS/TAMESON/TAMESON.xlsx
+++ b/MVP_02/SHOPPING_LISTS/TAMESON/TAMESON.xlsx
@@ -478,7 +478,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="1">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
